--- a/人名用漢字.xlsx
+++ b/人名用漢字.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="漢字読み方あかさたな" sheetId="1" r:id="rId1"/>
     <sheet name="漢字読み方はまやらわ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="260">
   <si>
     <t>あ</t>
   </si>
@@ -491,24 +491,12 @@
     <t>杉</t>
   </si>
   <si>
-    <t>どう</t>
-  </si>
-  <si>
-    <t>堂</t>
-  </si>
-  <si>
     <t>お</t>
   </si>
   <si>
     <t>織</t>
   </si>
   <si>
-    <t>げん</t>
-  </si>
-  <si>
-    <t>玄</t>
-  </si>
-  <si>
     <t>すけ</t>
   </si>
   <si>
@@ -770,12 +758,6 @@
     <t>村</t>
   </si>
   <si>
-    <t>ふ</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
     <t>もと</t>
   </si>
   <si>
@@ -785,12 +767,6 @@
     <t>本</t>
   </si>
   <si>
-    <t>ふく</t>
-  </si>
-  <si>
-    <t>福</t>
-  </si>
-  <si>
     <t>もり</t>
   </si>
   <si>
@@ -816,19 +792,17 @@
   </si>
   <si>
     <t>堀</t>
+  </si>
+  <si>
+    <t>憲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,151 +811,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,194 +830,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1198,251 +848,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1460,57 +868,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1801,14 +1162,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:U23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -1823,10 +1182,10 @@
     <col min="15" max="15" width="6.625" style="1" customWidth="1"/>
     <col min="16" max="18" width="4.625" customWidth="1"/>
     <col min="19" max="19" width="6.625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="4.625" customWidth="1"/>
+    <col min="20" max="20" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:21">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1884,7 +1243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
@@ -2036,7 +1395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2068,7 +1427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:21">
       <c r="B8" s="1" t="s">
         <v>72</v>
       </c>
@@ -2109,7 +1468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:21">
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -2141,7 +1500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
@@ -2172,8 +1531,11 @@
       <c r="T10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="U10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="1" t="s">
         <v>105</v>
       </c>
@@ -2211,7 +1573,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:21">
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
@@ -2237,7 +1599,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:21">
       <c r="B13" s="1" t="s">
         <v>124</v>
       </c>
@@ -2269,7 +1631,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:21">
       <c r="B14" s="1" t="s">
         <v>134</v>
       </c>
@@ -2298,7 +1660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
@@ -2327,7 +1689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:21">
       <c r="B16" s="1" t="s">
         <v>152</v>
       </c>
@@ -2347,135 +1709,120 @@
         <v>157</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P16" t="s">
+      <c r="C17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="1" t="s">
+      <c r="G17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C17" t="s">
+      <c r="L17" t="s">
         <v>161</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="M17" t="s">
         <v>162</v>
       </c>
-      <c r="H17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" t="s">
-        <v>166</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C18" t="s">
+      <c r="L18" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="O18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L18" t="s">
+      <c r="C19" t="s">
         <v>174</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H19" t="s">
+      <c r="P19" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="1" t="s">
+    </row>
+    <row r="20" spans="2:17">
+      <c r="O20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="15:16">
-      <c r="O20" s="1" t="s">
+    <row r="21" spans="2:17">
+      <c r="O21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="15:16">
-      <c r="O21" s="1" t="s">
+    <row r="22" spans="2:17">
+      <c r="O22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P22" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="15:16">
-      <c r="O22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="P22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="15:16">
-      <c r="O23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P23" t="s">
-        <v>190</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -2490,294 +1837,278 @@
     <col min="17" max="17" width="6.625" style="1" customWidth="1"/>
     <col min="18" max="19" width="4.625" customWidth="1"/>
     <col min="20" max="20" width="6.625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="4.625" customWidth="1"/>
+    <col min="21" max="21" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:22">
       <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="V2" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="E3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="F3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
+      <c r="G3" t="s">
         <v>201</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>204</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H3" t="s">
+      <c r="C4" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J3" t="s">
+      <c r="F4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J4" t="s">
+      <c r="F5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="J5" t="s">
+      <c r="F6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="K6" t="s">
         <v>223</v>
       </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>224</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" t="s">
-        <v>227</v>
-      </c>
-      <c r="L6" t="s">
-        <v>228</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
         <v>229</v>
       </c>
-      <c r="O6" t="s">
+      <c r="D7" t="s">
         <v>230</v>
       </c>
-      <c r="P6" t="s">
+      <c r="E7" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1" t="s">
+      <c r="F7" t="s">
         <v>232</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="J7" t="s">
         <v>235</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="C8" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="J7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F11" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
+      <c r="F12" t="s">
         <v>251</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G12" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C13" t="s">
         <v>258</v>
       </c>
-      <c r="F12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" t="s">
-        <v>266</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/人名用漢字.xlsx
+++ b/人名用漢字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="漢字読み方あかさたな" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="263">
   <si>
     <t>あ</t>
   </si>
@@ -795,6 +795,18 @@
   </si>
   <si>
     <t>憲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ささ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,6 +877,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,9 +1180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -1294,6 +1309,9 @@
       <c r="H4" t="s">
         <v>29</v>
       </c>
+      <c r="I4" t="s">
+        <v>262</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1371,13 +1389,10 @@
         <v>53</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
+        <v>260</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>57</v>
@@ -1409,10 +1424,13 @@
         <v>65</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>68</v>
@@ -1450,10 +1468,10 @@
         <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>81</v>
@@ -1482,10 +1500,10 @@
         <v>88</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>91</v>
@@ -1514,10 +1532,10 @@
         <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>101</v>
@@ -1555,16 +1573,10 @@
         <v>110</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>114</v>
@@ -1587,10 +1599,16 @@
         <v>119</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>122</v>
@@ -1613,10 +1631,10 @@
         <v>127</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>130</v>
@@ -1648,10 +1666,10 @@
         <v>138</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>141</v>
@@ -1674,10 +1692,10 @@
         <v>146</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>149</v>
@@ -1703,10 +1721,10 @@
         <v>155</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>163</v>
@@ -1729,13 +1747,10 @@
         <v>168</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>171</v>
@@ -1761,10 +1776,13 @@
         <v>176</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>177</v>
@@ -1779,6 +1797,12 @@
       </c>
       <c r="C19" t="s">
         <v>174</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>179</v>
@@ -1821,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>

--- a/人名用漢字.xlsx
+++ b/人名用漢字.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="漢字読み方あかさたな" sheetId="1" r:id="rId1"/>
     <sheet name="漢字読み方はまやらわ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
   <si>
     <t>あ</t>
   </si>
@@ -107,6 +107,9 @@
     <t>柿</t>
   </si>
   <si>
+    <t>垣</t>
+  </si>
+  <si>
     <t>さかき</t>
   </si>
   <si>
@@ -179,6 +182,39 @@
     <t>数</t>
   </si>
   <si>
+    <t>ささ</t>
+  </si>
+  <si>
+    <t>笹</t>
+  </si>
+  <si>
+    <t>ただ</t>
+  </si>
+  <si>
+    <t>忠</t>
+  </si>
+  <si>
+    <t>なり</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>あま</t>
+  </si>
+  <si>
+    <t>尼</t>
+  </si>
+  <si>
+    <t>かつ</t>
+  </si>
+  <si>
+    <t>勝</t>
+  </si>
+  <si>
     <t>さだ</t>
   </si>
   <si>
@@ -188,31 +224,37 @@
     <t>定</t>
   </si>
   <si>
-    <t>ただ</t>
-  </si>
-  <si>
-    <t>忠</t>
-  </si>
-  <si>
-    <t>なり</t>
-  </si>
-  <si>
-    <t>成</t>
-  </si>
-  <si>
-    <t>就</t>
-  </si>
-  <si>
-    <t>あま</t>
-  </si>
-  <si>
-    <t>尼</t>
-  </si>
-  <si>
-    <t>かつ</t>
-  </si>
-  <si>
-    <t>勝</t>
+    <t>たち</t>
+  </si>
+  <si>
+    <t>立</t>
+  </si>
+  <si>
+    <t>に</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>井</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>伊</t>
+  </si>
+  <si>
+    <t>居</t>
+  </si>
+  <si>
+    <t>かね</t>
+  </si>
+  <si>
+    <t>兼</t>
   </si>
   <si>
     <t>さと</t>
@@ -221,37 +263,28 @@
     <t>郷</t>
   </si>
   <si>
-    <t>たち</t>
-  </si>
-  <si>
-    <t>立</t>
-  </si>
-  <si>
-    <t>に</t>
-  </si>
-  <si>
-    <t>丹</t>
-  </si>
-  <si>
-    <t>い</t>
-  </si>
-  <si>
-    <t>井</t>
-  </si>
-  <si>
-    <t>以</t>
-  </si>
-  <si>
-    <t>伊</t>
-  </si>
-  <si>
-    <t>居</t>
-  </si>
-  <si>
-    <t>かね</t>
-  </si>
-  <si>
-    <t>兼</t>
+    <t>たに</t>
+  </si>
+  <si>
+    <t>谷</t>
+  </si>
+  <si>
+    <t>の</t>
+  </si>
+  <si>
+    <t>野</t>
+  </si>
+  <si>
+    <t>いえ</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>かる</t>
+  </si>
+  <si>
+    <t>軽</t>
   </si>
   <si>
     <t>さな</t>
@@ -260,28 +293,28 @@
     <t>真</t>
   </si>
   <si>
-    <t>たに</t>
-  </si>
-  <si>
-    <t>谷</t>
-  </si>
-  <si>
-    <t>の</t>
-  </si>
-  <si>
-    <t>野</t>
-  </si>
-  <si>
-    <t>いえ</t>
-  </si>
-  <si>
-    <t>家</t>
-  </si>
-  <si>
-    <t>かる</t>
-  </si>
-  <si>
-    <t>軽</t>
+    <t>ため</t>
+  </si>
+  <si>
+    <t>為</t>
+  </si>
+  <si>
+    <t>のぶ</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>いけ</t>
+  </si>
+  <si>
+    <t>池</t>
+  </si>
+  <si>
+    <t>かわ</t>
+  </si>
+  <si>
+    <t>川</t>
   </si>
   <si>
     <t>さね</t>
@@ -290,28 +323,37 @@
     <t>実</t>
   </si>
   <si>
-    <t>ため</t>
-  </si>
-  <si>
-    <t>為</t>
-  </si>
-  <si>
-    <t>のぶ</t>
-  </si>
-  <si>
-    <t>信</t>
-  </si>
-  <si>
-    <t>いけ</t>
-  </si>
-  <si>
-    <t>池</t>
-  </si>
-  <si>
-    <t>かわ</t>
-  </si>
-  <si>
-    <t>川</t>
+    <t>ち</t>
+  </si>
+  <si>
+    <t>智</t>
+  </si>
+  <si>
+    <t>のり</t>
+  </si>
+  <si>
+    <t>則</t>
+  </si>
+  <si>
+    <t>憲</t>
+  </si>
+  <si>
+    <t>いし</t>
+  </si>
+  <si>
+    <t>石</t>
+  </si>
+  <si>
+    <t>き</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>喜</t>
   </si>
   <si>
     <t>しか</t>
@@ -320,34 +362,22 @@
     <t>鹿</t>
   </si>
   <si>
-    <t>ち</t>
-  </si>
-  <si>
-    <t>智</t>
-  </si>
-  <si>
-    <t>のり</t>
-  </si>
-  <si>
-    <t>則</t>
-  </si>
-  <si>
-    <t>いし</t>
-  </si>
-  <si>
-    <t>石</t>
-  </si>
-  <si>
-    <t>き</t>
-  </si>
-  <si>
-    <t>鬼</t>
-  </si>
-  <si>
-    <t>木</t>
-  </si>
-  <si>
-    <t>喜</t>
+    <t>ちか</t>
+  </si>
+  <si>
+    <t>親</t>
+  </si>
+  <si>
+    <t>う</t>
+  </si>
+  <si>
+    <t>宇</t>
+  </si>
+  <si>
+    <t>きよ</t>
+  </si>
+  <si>
+    <t>清</t>
   </si>
   <si>
     <t>しげ</t>
@@ -359,22 +389,49 @@
     <t>茂</t>
   </si>
   <si>
-    <t>ちか</t>
-  </si>
-  <si>
-    <t>親</t>
-  </si>
-  <si>
-    <t>う</t>
-  </si>
-  <si>
-    <t>宇</t>
-  </si>
-  <si>
-    <t>きよ</t>
-  </si>
-  <si>
-    <t>清</t>
+    <t>つ</t>
+  </si>
+  <si>
+    <t>津</t>
+  </si>
+  <si>
+    <t>うえ</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>きょう</t>
+  </si>
+  <si>
+    <t>京</t>
+  </si>
+  <si>
+    <t>しの</t>
+  </si>
+  <si>
+    <t>篠</t>
+  </si>
+  <si>
+    <t>つか</t>
+  </si>
+  <si>
+    <t>塚</t>
+  </si>
+  <si>
+    <t>うじ</t>
+  </si>
+  <si>
+    <t>氏</t>
+  </si>
+  <si>
+    <t>く</t>
+  </si>
+  <si>
+    <t>久</t>
+  </si>
+  <si>
+    <t>九</t>
   </si>
   <si>
     <t>した</t>
@@ -383,22 +440,28 @@
     <t>下</t>
   </si>
   <si>
-    <t>つ</t>
-  </si>
-  <si>
-    <t>津</t>
-  </si>
-  <si>
-    <t>うえ</t>
-  </si>
-  <si>
-    <t>上</t>
-  </si>
-  <si>
-    <t>きょう</t>
-  </si>
-  <si>
-    <t>京</t>
+    <t>つぐ</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>継</t>
+  </si>
+  <si>
+    <t>続</t>
+  </si>
+  <si>
+    <t>うち</t>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>くら</t>
+  </si>
+  <si>
+    <t>倉</t>
   </si>
   <si>
     <t>しば</t>
@@ -407,31 +470,22 @@
     <t>柴</t>
   </si>
   <si>
-    <t>つぐ</t>
-  </si>
-  <si>
-    <t>次</t>
-  </si>
-  <si>
-    <t>継</t>
-  </si>
-  <si>
-    <t>続</t>
-  </si>
-  <si>
-    <t>うじ</t>
-  </si>
-  <si>
-    <t>氏</t>
-  </si>
-  <si>
-    <t>く</t>
-  </si>
-  <si>
-    <t>久</t>
-  </si>
-  <si>
-    <t>九</t>
+    <t>つな</t>
+  </si>
+  <si>
+    <t>綱</t>
+  </si>
+  <si>
+    <t>え</t>
+  </si>
+  <si>
+    <t>江</t>
+  </si>
+  <si>
+    <t>くろ</t>
+  </si>
+  <si>
+    <t>黒</t>
   </si>
   <si>
     <t>しま</t>
@@ -440,22 +494,25 @@
     <t>島</t>
   </si>
   <si>
-    <t>つな</t>
-  </si>
-  <si>
-    <t>綱</t>
-  </si>
-  <si>
-    <t>うち</t>
-  </si>
-  <si>
-    <t>内</t>
-  </si>
-  <si>
-    <t>くら</t>
-  </si>
-  <si>
-    <t>倉</t>
+    <t>つね</t>
+  </si>
+  <si>
+    <t>恒</t>
+  </si>
+  <si>
+    <t>経</t>
+  </si>
+  <si>
+    <t>お</t>
+  </si>
+  <si>
+    <t>織</t>
+  </si>
+  <si>
+    <t>こ</t>
+  </si>
+  <si>
+    <t>子</t>
   </si>
   <si>
     <t>す</t>
@@ -464,25 +521,22 @@
     <t>須</t>
   </si>
   <si>
-    <t>つね</t>
-  </si>
-  <si>
-    <t>恒</t>
-  </si>
-  <si>
-    <t>経</t>
-  </si>
-  <si>
-    <t>え</t>
-  </si>
-  <si>
-    <t>江</t>
-  </si>
-  <si>
-    <t>くろ</t>
-  </si>
-  <si>
-    <t>黒</t>
+    <t>とく</t>
+  </si>
+  <si>
+    <t>徳</t>
+  </si>
+  <si>
+    <t>おお</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>ごく</t>
+  </si>
+  <si>
+    <t>極</t>
   </si>
   <si>
     <t>すぎ</t>
@@ -491,10 +545,16 @@
     <t>杉</t>
   </si>
   <si>
-    <t>お</t>
-  </si>
-  <si>
-    <t>織</t>
+    <t>とし</t>
+  </si>
+  <si>
+    <t>歳</t>
+  </si>
+  <si>
+    <t>おき</t>
+  </si>
+  <si>
+    <t>興</t>
   </si>
   <si>
     <t>すけ</t>
@@ -506,22 +566,10 @@
     <t>介</t>
   </si>
   <si>
-    <t>とく</t>
-  </si>
-  <si>
-    <t>徳</t>
-  </si>
-  <si>
-    <t>おお</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>こ</t>
-  </si>
-  <si>
-    <t>子</t>
+    <t>とみ</t>
+  </si>
+  <si>
+    <t>臣</t>
   </si>
   <si>
     <t>すず</t>
@@ -530,30 +578,6 @@
     <t>鈴</t>
   </si>
   <si>
-    <t>とし</t>
-  </si>
-  <si>
-    <t>歳</t>
-  </si>
-  <si>
-    <t>おき</t>
-  </si>
-  <si>
-    <t>興</t>
-  </si>
-  <si>
-    <t>ごく</t>
-  </si>
-  <si>
-    <t>極</t>
-  </si>
-  <si>
-    <t>とみ</t>
-  </si>
-  <si>
-    <t>臣</t>
-  </si>
-  <si>
     <t>とも</t>
   </si>
   <si>
@@ -758,6 +782,12 @@
     <t>村</t>
   </si>
   <si>
+    <t>ふじ</t>
+  </si>
+  <si>
+    <t>藤</t>
+  </si>
+  <si>
     <t>もと</t>
   </si>
   <si>
@@ -767,6 +797,12 @@
     <t>本</t>
   </si>
   <si>
+    <t>ほそ</t>
+  </si>
+  <si>
+    <t>細</t>
+  </si>
+  <si>
     <t>もり</t>
   </si>
   <si>
@@ -776,45 +812,23 @@
     <t>森</t>
   </si>
   <si>
-    <t>ふじ</t>
-  </si>
-  <si>
-    <t>藤</t>
-  </si>
-  <si>
-    <t>ほそ</t>
-  </si>
-  <si>
-    <t>細</t>
-  </si>
-  <si>
     <t>ほり</t>
   </si>
   <si>
     <t>堀</t>
-  </si>
-  <si>
-    <t>憲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ささ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,13 +837,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,8 +994,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -860,9 +1198,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -883,10 +1463,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1177,12 +1804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -1200,7 +1829,7 @@
     <col min="20" max="20" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
+    <row r="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:20">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:20">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1310,89 +1939,89 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>57</v>
@@ -1410,7 +2039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:20">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -1424,232 +2053,226 @@
         <v>65</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>132</v>
-      </c>
-      <c r="R13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:18">
       <c r="B14" s="1" t="s">
         <v>134</v>
       </c>
@@ -1666,10 +2289,10 @@
         <v>138</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>141</v>
@@ -1677,172 +2300,193 @@
       <c r="P14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="Q14" t="s">
+        <v>143</v>
+      </c>
+      <c r="R14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
         <v>163</v>
       </c>
-      <c r="P16" t="s">
+      <c r="G17" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
         <v>167</v>
       </c>
-      <c r="H17" t="s">
+      <c r="O17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>157</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>172</v>
+      <c r="P17" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
         <v>175</v>
       </c>
-      <c r="H18" t="s">
+      <c r="O18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L18" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
         <v>177</v>
       </c>
-      <c r="P18" t="s">
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c r="M19" t="s">
+        <v>182</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="11:16">
+      <c r="K20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
       <c r="O20" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="15:16">
       <c r="O21" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="15:16">
       <c r="O22" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="15:16">
+      <c r="O23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="P23" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1864,275 +2508,275 @@
     <col min="21" max="21" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:20">
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="V2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="J6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="O6" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/人名用漢字.xlsx
+++ b/人名用漢字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="漢字読み方あかさたな" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
   <si>
     <t>あ</t>
   </si>
@@ -476,31 +476,55 @@
     <t>綱</t>
   </si>
   <si>
+    <t>うら</t>
+  </si>
+  <si>
+    <t>浦</t>
+  </si>
+  <si>
+    <t>くろ</t>
+  </si>
+  <si>
+    <t>黒</t>
+  </si>
+  <si>
+    <t>しま</t>
+  </si>
+  <si>
+    <t>島</t>
+  </si>
+  <si>
+    <t>つね</t>
+  </si>
+  <si>
+    <t>恒</t>
+  </si>
+  <si>
+    <t>経</t>
+  </si>
+  <si>
     <t>え</t>
   </si>
   <si>
     <t>江</t>
   </si>
   <si>
-    <t>くろ</t>
-  </si>
-  <si>
-    <t>黒</t>
-  </si>
-  <si>
-    <t>しま</t>
-  </si>
-  <si>
-    <t>島</t>
-  </si>
-  <si>
-    <t>つね</t>
-  </si>
-  <si>
-    <t>恒</t>
-  </si>
-  <si>
-    <t>経</t>
+    <t>こ</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>す</t>
+  </si>
+  <si>
+    <t>須</t>
+  </si>
+  <si>
+    <t>とく</t>
+  </si>
+  <si>
+    <t>徳</t>
   </si>
   <si>
     <t>お</t>
@@ -509,22 +533,22 @@
     <t>織</t>
   </si>
   <si>
-    <t>こ</t>
-  </si>
-  <si>
-    <t>子</t>
-  </si>
-  <si>
-    <t>す</t>
-  </si>
-  <si>
-    <t>須</t>
-  </si>
-  <si>
-    <t>とく</t>
-  </si>
-  <si>
-    <t>徳</t>
+    <t>ごく</t>
+  </si>
+  <si>
+    <t>極</t>
+  </si>
+  <si>
+    <t>すぎ</t>
+  </si>
+  <si>
+    <t>杉</t>
+  </si>
+  <si>
+    <t>とし</t>
+  </si>
+  <si>
+    <t>歳</t>
   </si>
   <si>
     <t>おお</t>
@@ -533,43 +557,25 @@
     <t>大</t>
   </si>
   <si>
-    <t>ごく</t>
-  </si>
-  <si>
-    <t>極</t>
-  </si>
-  <si>
-    <t>すぎ</t>
-  </si>
-  <si>
-    <t>杉</t>
-  </si>
-  <si>
-    <t>とし</t>
-  </si>
-  <si>
-    <t>歳</t>
+    <t>すけ</t>
+  </si>
+  <si>
+    <t>助</t>
+  </si>
+  <si>
+    <t>介</t>
+  </si>
+  <si>
+    <t>とみ</t>
+  </si>
+  <si>
+    <t>臣</t>
   </si>
   <si>
     <t>おき</t>
   </si>
   <si>
     <t>興</t>
-  </si>
-  <si>
-    <t>すけ</t>
-  </si>
-  <si>
-    <t>助</t>
-  </si>
-  <si>
-    <t>介</t>
-  </si>
-  <si>
-    <t>とみ</t>
-  </si>
-  <si>
-    <t>臣</t>
   </si>
   <si>
     <t>すず</t>
@@ -824,9 +830,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -838,7 +844,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,6 +886,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -858,10 +894,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,46 +910,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -928,46 +927,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,6 +940,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -996,31 +1002,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,151 +1134,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,8 +1208,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,6 +1261,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1268,30 +1298,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1304,10 +1310,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,133 +1322,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1811,7 +1817,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -2440,42 +2446,48 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="11:16">
+    <row r="20" spans="2:16">
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="15:16">
       <c r="O21" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="15:16">
       <c r="O22" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="15:16">
       <c r="O23" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2510,269 +2522,269 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F2" t="s">
+      <c r="U2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J2" t="s">
-        <v>203</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="V2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/人名用漢字.xlsx
+++ b/人名用漢字.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="漢字読み方あかさたな" sheetId="1" r:id="rId1"/>
     <sheet name="漢字読み方はまやらわ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="270">
   <si>
     <t>あ</t>
   </si>
@@ -530,9 +530,6 @@
     <t>お</t>
   </si>
   <si>
-    <t>織</t>
-  </si>
-  <si>
     <t>ごく</t>
   </si>
   <si>
@@ -822,19 +819,21 @@
   </si>
   <si>
     <t>堀</t>
+  </si>
+  <si>
+    <t>夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,150 +843,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,194 +870,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1204,255 +888,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,58 +910,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1810,14 +1208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -1835,7 +1231,7 @@
     <col min="20" max="20" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:21">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:21">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1969,7 +1365,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2045,7 +1441,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:21">
       <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
@@ -2080,7 +1476,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:21">
       <c r="B8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +1517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:21">
       <c r="B9" s="1" t="s">
         <v>86</v>
       </c>
@@ -2188,7 +1584,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:21">
       <c r="B11" s="1" t="s">
         <v>107</v>
       </c>
@@ -2220,7 +1616,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:21">
       <c r="B12" s="1" t="s">
         <v>117</v>
       </c>
@@ -2252,7 +1648,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:21">
       <c r="B13" s="1" t="s">
         <v>126</v>
       </c>
@@ -2278,7 +1674,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:21">
       <c r="B14" s="1" t="s">
         <v>134</v>
       </c>
@@ -2313,7 +1709,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:21">
       <c r="B15" s="1" t="s">
         <v>145</v>
       </c>
@@ -2339,7 +1735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:21">
       <c r="B16" s="1" t="s">
         <v>153</v>
       </c>
@@ -2368,7 +1764,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:18">
       <c r="B17" s="1" t="s">
         <v>162</v>
       </c>
@@ -2394,111 +1790,113 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:18">
       <c r="B18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" t="s">
         <v>172</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" t="s">
         <v>174</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q18" t="s">
+        <v>176</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>178</v>
       </c>
-      <c r="C19" t="s">
+      <c r="K19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" t="s">
         <v>180</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>181</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" t="s">
         <v>183</v>
       </c>
-      <c r="P19" t="s">
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>185</v>
       </c>
-      <c r="C20" t="s">
+      <c r="K20" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" t="s">
         <v>187</v>
       </c>
-      <c r="L20" t="s">
+      <c r="O20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" t="s">
         <v>189</v>
       </c>
-      <c r="P20" t="s">
+    </row>
+    <row r="21" spans="2:18">
+      <c r="O21" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="15:16">
-      <c r="O21" s="1" t="s">
+      <c r="P21" t="s">
         <v>191</v>
       </c>
-      <c r="P21" t="s">
+    </row>
+    <row r="22" spans="2:18">
+      <c r="O22" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="15:16">
-      <c r="O22" s="1" t="s">
+      <c r="P22" t="s">
         <v>193</v>
       </c>
-      <c r="P22" t="s">
+    </row>
+    <row r="23" spans="2:18">
+      <c r="O23" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="23" spans="15:16">
-      <c r="O23" s="1" t="s">
+      <c r="P23" t="s">
         <v>195</v>
       </c>
-      <c r="P23" t="s">
-        <v>196</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2520,275 +1918,275 @@
     <col min="21" max="21" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20">
+    <row r="1" spans="2:22">
       <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="2:22">
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>203</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" t="s">
         <v>205</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="2:22">
+      <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>209</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>210</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>211</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" t="s">
         <v>213</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>215</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>217</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
         <v>219</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>221</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>223</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
         <v>225</v>
       </c>
-      <c r="J5" t="s">
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>227</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>229</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" t="s">
         <v>231</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>232</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>233</v>
-      </c>
-      <c r="L6" t="s">
-        <v>234</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" t="s">
         <v>235</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>236</v>
       </c>
-      <c r="P6" t="s">
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>238</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>239</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>241</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" t="s">
         <v>244</v>
       </c>
-      <c r="J7" t="s">
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>246</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="1" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
         <v>251</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>253</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
         <v>255</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>259</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="12" spans="2:22">
+      <c r="B12" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>262</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>265</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="2:22">
+      <c r="B13" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>267</v>
       </c>
-      <c r="C13" t="s">
-        <v>268</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/人名用漢字.xlsx
+++ b/人名用漢字.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="272">
   <si>
     <t>あ</t>
   </si>
@@ -826,6 +826,14 @@
   </si>
   <si>
     <t>敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>その</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>園</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +902,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +919,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,7 +1224,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5"/>
@@ -1866,6 +1877,12 @@
       </c>
     </row>
     <row r="21" spans="2:18">
+      <c r="K21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="O21" s="1" t="s">
         <v>190</v>
       </c>
